--- a/Excel/TI/Mon_TI_2024_03_30.xlsx
+++ b/Excel/TI/Mon_TI_2024_03_30.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AL9"/>
+  <dimension ref="A1:AL8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -644,13 +644,13 @@
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="n">
+        <v>44.6</v>
+      </c>
+      <c r="G2" t="n">
         <v>38.6</v>
       </c>
-      <c r="G2" t="n">
-        <v>37.9</v>
-      </c>
       <c r="H2" t="n">
-        <v>32.1</v>
+        <v>32.4</v>
       </c>
       <c r="I2" t="n">
         <v>14</v>
@@ -668,27 +668,27 @@
         <v>7</v>
       </c>
       <c r="N2" t="n">
+        <v>45</v>
+      </c>
+      <c r="O2" t="n">
+        <v>49</v>
+      </c>
+      <c r="P2" t="n">
+        <v>28</v>
+      </c>
+      <c r="Q2" t="n">
         <v>59</v>
       </c>
-      <c r="O2" t="n">
+      <c r="R2" t="n">
         <v>42</v>
       </c>
-      <c r="P2" t="n">
-        <v>16</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>33</v>
-      </c>
-      <c r="R2" t="n">
-        <v>43</v>
-      </c>
       <c r="S2" t="inlineStr">
         <is>
           <t>vs</t>
         </is>
       </c>
       <c r="T2" t="n">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="U2" t="inlineStr"/>
       <c r="V2" t="inlineStr"/>
@@ -777,58 +777,56 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jaylen Brown</t>
+          <t>Kristaps Porzingis</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="n">
-        <v>40.8</v>
+        <v>24.8</v>
       </c>
       <c r="G3" t="n">
-        <v>37.3</v>
+        <v>33.9</v>
       </c>
       <c r="H3" t="n">
-        <v>32.2</v>
+        <v>32.6</v>
       </c>
       <c r="I3" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3" t="n">
         <v>3</v>
       </c>
       <c r="M3" t="n">
-        <v>7</v>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="N3" t="n">
+        <v>24</v>
       </c>
       <c r="O3" t="n">
-        <v>43</v>
-      </c>
-      <c r="P3" t="n">
-        <v>32</v>
+        <v>24</v>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="Q3" t="n">
-        <v>45</v>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>28</v>
+      </c>
+      <c r="R3" t="n">
+        <v>15</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
@@ -836,7 +834,7 @@
         </is>
       </c>
       <c r="T3" t="n">
-        <v>-2.1</v>
+        <v>-0.2</v>
       </c>
       <c r="U3" t="inlineStr"/>
       <c r="V3" t="inlineStr"/>
@@ -852,11 +850,13 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="Z3" t="n">
-        <v>42</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
@@ -922,144 +922,146 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Kristaps Porzingis</t>
+          <t>Paolo Banchero</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr"/>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
       <c r="F4" t="n">
-        <v>29.8</v>
+        <v>25.8</v>
       </c>
       <c r="G4" t="n">
-        <v>35.3</v>
+        <v>32.2</v>
       </c>
       <c r="H4" t="n">
-        <v>33</v>
+        <v>33.4</v>
       </c>
       <c r="I4" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M4" t="n">
-        <v>2</v>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>4</v>
+      </c>
+      <c r="N4" t="n">
+        <v>27</v>
       </c>
       <c r="O4" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="P4" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="Q4" t="n">
-        <v>33</v>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>35</v>
+      </c>
+      <c r="R4" t="n">
+        <v>23</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="T4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
+        <v>-0.4</v>
+      </c>
+      <c r="U4" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="V4" t="n">
+        <v>12</v>
+      </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
+          <t>MEM</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="Z4" t="n">
+        <v>36</v>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AD4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AE4" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>POR</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
+        <is>
           <t>NOP</t>
         </is>
       </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AA4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AD4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AF4" t="inlineStr">
+      <c r="AI4" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AJ4" t="inlineStr">
         <is>
           <t>CHA</t>
         </is>
       </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>OKC</t>
-        </is>
-      </c>
-      <c r="AI4" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AJ4" t="inlineStr">
-        <is>
-          <t>SAC</t>
-        </is>
-      </c>
       <c r="AK4" t="inlineStr">
         <is>
           <t>vs</t>
@@ -1067,46 +1069,42 @@
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>CHI</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Paolo Banchero</t>
+          <t>Jaren Jackson Jr.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
-        <v>33.2</v>
+        <v>27</v>
       </c>
       <c r="G5" t="n">
-        <v>34.1</v>
+        <v>30.2</v>
       </c>
       <c r="H5" t="n">
-        <v>33.8</v>
+        <v>30.3</v>
       </c>
       <c r="I5" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K5" t="n">
         <v>2</v>
@@ -1115,54 +1113,50 @@
         <v>4</v>
       </c>
       <c r="M5" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N5" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="O5" t="n">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="P5" t="n">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="Q5" t="n">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="R5" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="T5" t="n">
-        <v>-0.1</v>
-      </c>
-      <c r="U5" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="V5" t="n">
-        <v>12</v>
-      </c>
+        <v>1.7</v>
+      </c>
+      <c r="U5" t="inlineStr"/>
+      <c r="V5" t="inlineStr"/>
       <c r="W5" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="Z5" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
@@ -1186,12 +1180,12 @@
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
@@ -1201,17 +1195,17 @@
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="AK5" t="inlineStr">
@@ -1221,39 +1215,43 @@
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>PHI</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Jaren Jackson Jr.</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr"/>
+          <t>Khris Middleton</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Probable</t>
+        </is>
+      </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="n">
-        <v>30.4</v>
+        <v>24.8</v>
       </c>
       <c r="G6" t="n">
-        <v>31.7</v>
+        <v>25.4</v>
       </c>
       <c r="H6" t="n">
-        <v>30.7</v>
+        <v>23.4</v>
       </c>
       <c r="I6" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J6" t="n">
         <v>2</v>
@@ -1262,27 +1260,27 @@
         <v>1</v>
       </c>
       <c r="L6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N6" t="n">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="O6" t="n">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="P6" t="n">
-        <v>24</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>37</v>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>23</v>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R6" t="n">
+        <v>41</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
@@ -1290,7 +1288,7 @@
         </is>
       </c>
       <c r="T6" t="n">
-        <v>2</v>
+        <v>-0.8</v>
       </c>
       <c r="U6" t="inlineStr"/>
       <c r="V6" t="inlineStr"/>
@@ -1301,7 +1299,7 @@
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
@@ -1310,7 +1308,7 @@
         </is>
       </c>
       <c r="Z6" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
@@ -1339,17 +1337,17 @@
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="AI6" t="inlineStr">
@@ -1359,7 +1357,7 @@
       </c>
       <c r="AJ6" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="AK6" t="inlineStr">
@@ -1369,19 +1367,19 @@
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>NYK</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Khris Middleton</t>
+          <t>Franz Wagner</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
@@ -1390,77 +1388,81 @@
           <t>F</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
       <c r="F7" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G7" t="n">
-        <v>26.8</v>
+        <v>22.9</v>
       </c>
       <c r="H7" t="n">
-        <v>23.9</v>
+        <v>28.6</v>
       </c>
       <c r="I7" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
       <c r="N7" t="n">
-        <v>23</v>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>17</v>
+      </c>
+      <c r="O7" t="n">
+        <v>18</v>
       </c>
       <c r="P7" t="n">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="Q7" t="n">
-        <v>36</v>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>27</v>
+      </c>
+      <c r="R7" t="n">
+        <v>13</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="T7" t="n">
-        <v>-0.7</v>
-      </c>
-      <c r="U7" t="inlineStr"/>
-      <c r="V7" t="inlineStr"/>
+        <v>1.8</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="V7" t="n">
+        <v>12</v>
+      </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="Z7" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
@@ -1484,32 +1486,32 @@
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="AK7" t="inlineStr">
@@ -1519,70 +1521,80 @@
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>CHI</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Franz Wagner</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr"/>
+          <t>Trae Young</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Out</t>
+        </is>
+      </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="n">
-        <v>27.6</v>
+        <v>25.4</v>
       </c>
       <c r="G8" t="n">
-        <v>23.4</v>
+        <v>35</v>
       </c>
       <c r="H8" t="n">
-        <v>28.9</v>
+        <v>37.6</v>
       </c>
       <c r="I8" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="n">
-        <v>25</v>
-      </c>
-      <c r="O8" t="n">
-        <v>27</v>
-      </c>
-      <c r="P8" t="n">
-        <v>13</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>37</v>
-      </c>
-      <c r="R8" t="n">
-        <v>36</v>
+        <v>0</v>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
@@ -1590,14 +1602,10 @@
         </is>
       </c>
       <c r="T8" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="V8" t="n">
-        <v>12</v>
-      </c>
+        <v>-0.8</v>
+      </c>
+      <c r="U8" t="inlineStr"/>
+      <c r="V8" t="inlineStr"/>
       <c r="W8" t="inlineStr">
         <is>
           <t>vs</t>
@@ -1605,7 +1613,7 @@
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
@@ -1614,17 +1622,15 @@
         </is>
       </c>
       <c r="Z8" t="n">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AB8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AB8" t="n">
+        <v>31</v>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
@@ -1638,22 +1644,22 @@
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="AI8" t="inlineStr">
@@ -1663,173 +1669,15 @@
       </c>
       <c r="AJ8" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
-        <is>
-          <t>CHI</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>ATL</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Trae Young</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Out</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="n">
-        <v>25.4</v>
-      </c>
-      <c r="G9" t="n">
-        <v>35</v>
-      </c>
-      <c r="H9" t="n">
-        <v>37.6</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="T9" t="n">
-        <v>-0.8</v>
-      </c>
-      <c r="U9" t="inlineStr"/>
-      <c r="V9" t="inlineStr"/>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>MIL</t>
-        </is>
-      </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="Z9" t="n">
-        <v>39</v>
-      </c>
-      <c r="AA9" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AB9" t="n">
-        <v>31</v>
-      </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AD9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AE9" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AF9" t="inlineStr">
-        <is>
-          <t>CHI</t>
-        </is>
-      </c>
-      <c r="AG9" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AH9" t="inlineStr">
-        <is>
-          <t>DET</t>
-        </is>
-      </c>
-      <c r="AI9" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AJ9" t="inlineStr">
-        <is>
-          <t>DAL</t>
-        </is>
-      </c>
-      <c r="AK9" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AL9" t="inlineStr">
         <is>
           <t>DEN</t>
         </is>
